--- a/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>STT</t>
   </si>
@@ -149,28 +149,37 @@
     <t>&amp;=[DATA1].BOLD</t>
   </si>
   <si>
-    <t>&amp;=&amp;=(E{r} * J{r})</t>
-  </si>
-  <si>
-    <t>&amp;=&amp;=(F{r} * K{r})</t>
-  </si>
-  <si>
-    <t>&amp;=&amp;=(G{r} * L{r})</t>
-  </si>
-  <si>
-    <t>&amp;=&amp;=(H{r} * M{r})</t>
-  </si>
-  <si>
-    <t>&amp;=&amp;=SUM(N{r}:Q{r})</t>
-  </si>
-  <si>
-    <t>&amp;=&amp;=SUM(S{r}:U{r})</t>
-  </si>
-  <si>
-    <t>&amp;=&amp;=SUM(E{r}:H{r})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &amp;=&amp;=R{r}-V{r}</t>
+    <t>ID máy XN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].IDMAY_XN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SL_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIEN_BHYT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIEN_YC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIEN_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIEN_NNN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIEN_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].LAI</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TIEUCHI</t>
   </si>
 </sst>
 </file>
@@ -181,7 +190,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +233,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -263,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -312,12 +328,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -345,10 +398,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,56 +428,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -724,175 +792,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="7" customWidth="1"/>
-    <col min="5" max="6" width="16" style="7" customWidth="1"/>
-    <col min="7" max="9" width="16" style="6" customWidth="1"/>
-    <col min="10" max="11" width="23.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="6" customWidth="1"/>
-    <col min="14" max="19" width="28" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.28515625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="28" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="27" style="7" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="7" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="12" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12" style="6" customWidth="1"/>
+    <col min="15" max="19" width="17.7109375" style="1" customWidth="1"/>
+    <col min="20" max="23" width="17.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="38" t="s">
+    <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:24" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="39" t="s">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+    </row>
+    <row r="7" spans="1:25" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34" t="s">
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="39" t="s">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="28" t="s">
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="20" t="s">
+    <row r="8" spans="1:25" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="K8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="P8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="R8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="S8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="T8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="U8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="V8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="W8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="29"/>
+      <c r="X8" s="30"/>
     </row>
-    <row r="9" spans="1:24" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -906,168 +995,250 @@
         <v>4</v>
       </c>
       <c r="E9" s="8">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>7</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>8</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>9</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>10</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>11</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <v>12</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>13</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>14</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>15</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>16</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>17</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>18</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>19</v>
       </c>
-      <c r="T9" s="8">
+      <c r="U9" s="8">
         <v>20</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <v>21</v>
       </c>
-      <c r="V9" s="8">
+      <c r="W9" s="8">
         <v>22</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="25" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="J10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="V10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="X10" s="24" t="s">
+      <c r="W10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T13" s="35" t="s">
+    <row r="11" spans="1:25" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="23">
+        <f>SUM(F10:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" ref="G11:X11" si="0">SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="35"/>
+      <c r="V13" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="T13:U13"/>
+  <mergeCells count="17">
+    <mergeCell ref="U13:V13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="T7:W7"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:S7"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:C10">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$X10=1</formula>
+      <formula>$Y10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="37" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>&amp;=[DATA].TIEUCHI</t>
+  </si>
+  <si>
+    <t>Khoa trả kết quả</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].KHOATRA_KQ</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -449,6 +455,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:O4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="S1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,118 +828,122 @@
     <col min="15" max="19" width="17.7109375" style="1" customWidth="1"/>
     <col min="20" max="23" width="17.140625" style="1" customWidth="1"/>
     <col min="24" max="24" width="17.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="25" width="30.42578125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:25" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="22"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="43" t="s">
+    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="44" t="s">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
-    <row r="7" spans="1:25" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="1:26" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="38" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="29" t="s">
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="32" t="s">
         <v>15</v>
       </c>
+      <c r="Y7" s="30" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+    <row r="8" spans="1:26" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="18" t="s">
         <v>16</v>
       </c>
@@ -979,9 +998,10 @@
       <c r="W8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X8" s="30"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:25" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1054,8 +1074,11 @@
       <c r="X9" s="8">
         <v>23</v>
       </c>
+      <c r="Y9" s="8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>4</v>
       </c>
@@ -1129,17 +1152,20 @@
         <v>49</v>
       </c>
       <c r="Y10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:26" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="23">
         <f>SUM(F10:F10)</f>
         <v>0</v>
@@ -1204,15 +1230,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Y11" s="23"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U13" s="36" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V13" s="36"/>
+      <c r="V13" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1225,6 +1252,7 @@
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F3:O3"/>
     <mergeCell ref="F4:O4"/>
+    <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="X7:X8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:J7"/>
@@ -1233,12 +1261,12 @@
   </mergeCells>
   <conditionalFormatting sqref="A10:C10">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$Y10=1</formula>
+      <formula>$Z10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="50" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>Yêu cầu</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].KHOATRA_KQ</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,33 +459,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,6 +468,12 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,6 +491,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="S1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,173 +836,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="A1" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="22"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="F2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="F3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="F4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="F7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37" t="s">
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38" t="s">
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="30" t="s">
-        <v>51</v>
+      <c r="Y7" s="41" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="J8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="K8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="T8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="14" t="s">
+      <c r="U8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="W8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="31"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="42"/>
     </row>
     <row r="9" spans="1:26" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -1080,92 +1083,92 @@
     </row>
     <row r="10" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="F10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="G10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="26" t="s">
+      <c r="P10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="27" t="s">
+      <c r="R10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="U10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="27" t="s">
+      <c r="V10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="X10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="27" t="s">
+      <c r="Y10" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="X10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y10" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="29" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="A11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="23">
         <f>SUM(F10:F10)</f>
         <v>0</v>
@@ -1233,13 +1236,19 @@
       <c r="Y11" s="23"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U13" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="39"/>
+      <c r="U13" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:S7"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1252,12 +1261,6 @@
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F3:O3"/>
     <mergeCell ref="F4:O4"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:S7"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:C10">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">

--- a/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -431,40 +431,46 @@
     <xf numFmtId="1" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -512,9 +518,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -812,141 +815,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="27" style="7" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="7" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8" max="10" width="10.28515625" style="6" customWidth="1"/>
     <col min="11" max="12" width="12" style="6" customWidth="1"/>
     <col min="13" max="13" width="12" style="10" customWidth="1"/>
     <col min="14" max="14" width="12" style="6" customWidth="1"/>
-    <col min="15" max="19" width="17.7109375" style="1" customWidth="1"/>
-    <col min="20" max="23" width="17.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.42578125" style="1" customWidth="1"/>
+    <col min="15" max="24" width="16.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47" t="s">
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="32" t="s">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="43" t="s">
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="41" t="s">
+      <c r="Y7" s="43" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="18" t="s">
         <v>14</v>
       </c>
@@ -1001,8 +1002,8 @@
       <c r="W8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="42"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="44"/>
     </row>
     <row r="9" spans="1:26" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -1081,11 +1082,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:26" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -1157,89 +1158,89 @@
       <c r="Y10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="29" t="s">
+      <c r="Z10" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:26" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="23">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="22">
         <f>SUM(F10:F10)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <f t="shared" ref="G11:X11" si="0">SUM(G10:G10)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23">
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="23">
+      <c r="X11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="23"/>
+      <c r="Y11" s="22"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U13" s="30" t="s">
+      <c r="U13" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="V13" s="30"/>
+      <c r="V13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1268,8 +1269,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="44" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>STT</t>
   </si>
@@ -186,6 +186,48 @@
   </si>
   <si>
     <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>Khu vực</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].KHUVUC_TEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hóa chất </t>
+  </si>
+  <si>
+    <t>Hao phí XN</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện nước </t>
+  </si>
+  <si>
+    <t>Khấu hao máy móc</t>
+  </si>
+  <si>
+    <t>Khấu hao xây dựng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_HOACHAT_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_HAOPHIXN_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_LUONG_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_DIENNUOC_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_KHMAYMOC_TONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_KHXAYDUNG_TONG</t>
   </si>
 </sst>
 </file>
@@ -247,7 +289,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -376,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,12 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,6 +507,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,12 +549,6 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,26 +567,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,83 +878,87 @@
     <col min="1" max="1" width="6.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8" max="10" width="10.28515625" style="6" customWidth="1"/>
-    <col min="11" max="12" width="12" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12" style="6" customWidth="1"/>
-    <col min="15" max="24" width="16.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="7" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9" max="11" width="10.28515625" style="6" customWidth="1"/>
+    <col min="12" max="13" width="12" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12" style="6" customWidth="1"/>
+    <col min="16" max="31" width="16.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.28515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="40" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="41" t="s">
+    <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="42" t="s">
+    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
     </row>
-    <row r="7" spans="1:26" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:33" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="35" t="s">
@@ -909,368 +967,372 @@
       <c r="E7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="34" t="s">
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="45" t="s">
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="43" t="s">
+      <c r="AF7" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="M8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="N8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="O8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="Q8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="R8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="S8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="T8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="U8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="W8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="X8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="44"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="32"/>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8">
+    <row r="9" spans="1:33" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG9" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="20">
+        <f>SUM(G9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" ref="H10:AE10" si="0">SUM(H9:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="20">
+        <f t="shared" ref="X10:AC10" si="1">SUM(X9:X9)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="20"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8">
-        <v>5</v>
-      </c>
-      <c r="G9" s="8">
-        <v>6</v>
-      </c>
-      <c r="H9" s="8">
-        <v>7</v>
-      </c>
-      <c r="I9" s="8">
-        <v>8</v>
-      </c>
-      <c r="J9" s="8">
-        <v>9</v>
-      </c>
-      <c r="K9" s="8">
-        <v>10</v>
-      </c>
-      <c r="L9" s="8">
-        <v>11</v>
-      </c>
-      <c r="M9" s="8">
-        <v>12</v>
-      </c>
-      <c r="N9" s="8">
-        <v>13</v>
-      </c>
-      <c r="O9" s="8">
-        <v>14</v>
-      </c>
-      <c r="P9" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>16</v>
-      </c>
-      <c r="R9" s="8">
-        <v>17</v>
-      </c>
-      <c r="S9" s="8">
-        <v>18</v>
-      </c>
-      <c r="T9" s="8">
-        <v>19</v>
-      </c>
-      <c r="U9" s="8">
-        <v>20</v>
-      </c>
-      <c r="V9" s="8">
-        <v>21</v>
-      </c>
-      <c r="W9" s="8">
-        <v>22</v>
-      </c>
-      <c r="X9" s="8">
-        <v>23</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="X10" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="22">
-        <f>SUM(F10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <f t="shared" ref="G11:X11" si="0">SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="22"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U13" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="31"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="U13:V13"/>
+  <mergeCells count="19">
+    <mergeCell ref="V12:W12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="U7:AD7"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:T7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A10:C10">
+  <conditionalFormatting sqref="A9:C9">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$Z10=1</formula>
+      <formula>$AG9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="54" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
@@ -212,22 +212,22 @@
     <t>Khấu hao xây dựng</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].CP_HOACHAT_TONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].CP_HAOPHIXN_TONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].CP_LUONG_TONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].CP_DIENNUOC_TONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].CP_KHMAYMOC_TONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].CP_KHXAYDUNG_TONG</t>
+    <t>&amp;=[DATA1].CP_HOACHAT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_HAOPHIXN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_LUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_DIENNUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_KHMAYMOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CP_KHXAYDUNG</t>
   </si>
 </sst>
 </file>
@@ -510,32 +510,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,6 +528,12 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,11 +552,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,7 +870,7 @@
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,129 +893,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="19"/>
       <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="19"/>
       <c r="E2" s="30"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="7" spans="1:33" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="43" t="s">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="33" t="s">
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AF7" s="31" t="s">
+      <c r="AF7" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
@@ -1085,11 +1085,11 @@
       <c r="AC8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" s="50" t="s">
+      <c r="AD8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="32"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="46"/>
     </row>
     <row r="9" spans="1:33" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
@@ -1179,7 +1179,7 @@
       <c r="AC9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="AD9" s="51" t="s">
+      <c r="AD9" s="32" t="s">
         <v>46</v>
       </c>
       <c r="AE9" s="25" t="s">
@@ -1193,14 +1193,14 @@
       </c>
     </row>
     <row r="10" spans="1:33" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="20">
         <f>SUM(G9:G9)</f>
         <v>0</v>
@@ -1257,30 +1257,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X10" s="20">
-        <f t="shared" ref="X10:AC10" si="1">SUM(X9:X9)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
       <c r="AD10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1292,10 +1274,10 @@
       <c r="AF10" s="20"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="V12" s="40" t="s">
+      <c r="V12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="40"/>
+      <c r="W12" s="33"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
       <c r="Z12" s="29"/>
@@ -1305,6 +1287,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:T7"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1318,12 +1306,6 @@
     <mergeCell ref="G3:P3"/>
     <mergeCell ref="G4:P4"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:C9">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">

--- a/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
@@ -65,9 +65,6 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>Chi phí</t>
-  </si>
-  <si>
     <t>Lãi</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].CP_KHXAYDUNG</t>
+  </si>
+  <si>
+    <t>Chi phí cho 1 xét nghiệm</t>
   </si>
 </sst>
 </file>
@@ -516,6 +516,33 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,12 +555,6 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,27 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,7 +870,7 @@
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,314 +893,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="A1" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="19"/>
       <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="19"/>
       <c r="E2" s="30"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="G4" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
     </row>
     <row r="7" spans="1:33" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="36" t="s">
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF7" s="45" t="s">
-        <v>49</v>
+      <c r="AF7" s="33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="L8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="R8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="V8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="W8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="X8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="46"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="34"/>
     </row>
     <row r="9" spans="1:33" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="F9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="24" t="s">
+      <c r="L9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="M9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="25" t="s">
+      <c r="Q9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="25" t="s">
+      <c r="V9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="W9" s="25" t="s">
+      <c r="AE9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG9" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="X9" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y9" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z9" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB9" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD9" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG9" s="26" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
+      <c r="A10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="20">
         <f>SUM(G9:G9)</f>
         <v>0</v>
@@ -1274,10 +1274,10 @@
       <c r="AF10" s="20"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="V12" s="33" t="s">
+      <c r="V12" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="33"/>
+      <c r="W12" s="42"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
       <c r="Z12" s="29"/>
@@ -1287,12 +1287,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:T7"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1306,6 +1300,12 @@
     <mergeCell ref="G3:P3"/>
     <mergeCell ref="G4:P4"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:C9">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">

--- a/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoMayXetNghiem.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AH$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Chi phí cho 1 xét nghiệm</t>
+  </si>
+  <si>
+    <t>BHYT+YC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SL_BHYTYC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TIEN_BHYTYC</t>
   </si>
 </sst>
 </file>
@@ -424,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,36 +525,15 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,6 +543,12 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,6 +566,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,216 +897,228 @@
     <col min="5" max="5" width="16.85546875" style="29" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="7" customWidth="1"/>
     <col min="7" max="8" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9" max="11" width="10.28515625" style="6" customWidth="1"/>
-    <col min="12" max="13" width="12" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12" style="8" customWidth="1"/>
-    <col min="15" max="15" width="12" style="6" customWidth="1"/>
-    <col min="16" max="31" width="16.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="21.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.28515625" style="34" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="6" customWidth="1"/>
+    <col min="13" max="14" width="12" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12" style="6" customWidth="1"/>
+    <col min="17" max="33" width="16.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="21.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="19"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:35" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="19"/>
       <c r="E2" s="30"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
     </row>
-    <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="50" t="s">
+    <row r="3" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
-    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="51" t="s">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="45" t="s">
+    <row r="7" spans="1:35" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41" t="s">
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="45" t="s">
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="35" t="s">
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="33" t="s">
+      <c r="AH7" s="47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+    <row r="8" spans="1:35" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="P8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="R8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="U8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="V8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="W8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="Y8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="Z8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="AA8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="AB8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AC8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" s="9" t="s">
+      <c r="AD8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="9" t="s">
+      <c r="AE8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AD8" s="31" t="s">
+      <c r="AF8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="34"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="48"/>
     </row>
-    <row r="9" spans="1:33" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>3</v>
       </c>
@@ -1117,100 +1144,106 @@
         <v>26</v>
       </c>
       <c r="I9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="K9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="L9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="O9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="P9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="Q9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="R9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="S9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="U9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="V9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="W9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="X9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="25" t="s">
+      <c r="Y9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="25" t="s">
+      <c r="Z9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Y9" s="25" t="s">
+      <c r="AA9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="Z9" s="25" t="s">
+      <c r="AB9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="25" t="s">
+      <c r="AC9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AB9" s="25" t="s">
+      <c r="AD9" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AC9" s="25" t="s">
+      <c r="AE9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AD9" s="32" t="s">
+      <c r="AF9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AG9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AH9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AG9" s="26" t="s">
+      <c r="AI9" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:35" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="20">
         <f>SUM(G9:G9)</f>
         <v>0</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" ref="H10:AE10" si="0">SUM(H9:H9)</f>
+        <f t="shared" ref="H10:AG10" si="0">SUM(H9:H9)</f>
         <v>0</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10" si="1">SUM(I9:I9)</f>
         <v>0</v>
       </c>
       <c r="J10" s="20">
@@ -1221,14 +1254,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
-      <c r="P10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="P10" s="20"/>
       <c r="Q10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1238,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S10" si="2">SUM(S9:S9)</f>
         <v>0</v>
       </c>
       <c r="T10" s="20">
@@ -1257,59 +1290,67 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
+      <c r="X10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
-      <c r="AD10" s="20">
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="20">
+      <c r="AG10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="20"/>
+      <c r="AH10" s="20"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="V12" s="42" t="s">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="X12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
+      <c r="Y12" s="35"/>
       <c r="Z12" s="29"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="29"/>
       <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="X12:Y12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="W7:AF7"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="G3:Q3"/>
+    <mergeCell ref="G4:Q4"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:C9">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$AG9=1</formula>
+      <formula>$AI9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
